--- a/docs/ValueSet-ReferralConditionTubeVS-TWLTC.xlsx
+++ b/docs/ValueSet-ReferralConditionTubeVS-TWLTC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-ReferralConditionTubeVS-TWLTC.xlsx
+++ b/docs/ValueSet-ReferralConditionTubeVS-TWLTC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
